--- a/Data/Kwantyfikatory.xlsx
+++ b/Data/Kwantyfikatory.xlsx
@@ -12,12 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Bezwględne" sheetId="1" r:id="rId1"/>
-    <sheet name="Względne" sheetId="2" r:id="rId2"/>
+    <sheet name="Względne " sheetId="1" r:id="rId1"/>
+    <sheet name="Bezwzględne" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -209,7 +206,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bezwględne!$B$5</c:f>
+              <c:f>'Względne '!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -242,7 +239,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Bezwględne!$C$6:$C$9</c:f>
+              <c:f>'Względne '!$C$6:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -260,7 +257,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Bezwględne!$D$6:$D$9</c:f>
+              <c:f>'Względne '!$D$6:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -283,7 +280,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bezwględne!$B$11</c:f>
+              <c:f>'Względne '!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -316,7 +313,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Bezwględne!$C$12:$C$15</c:f>
+              <c:f>'Względne '!$C$12:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -337,7 +334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Bezwględne!$D$12:$D$15</c:f>
+              <c:f>'Względne '!$D$12:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -363,7 +360,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bezwględne!$B$17</c:f>
+              <c:f>'Względne '!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -396,7 +393,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Bezwględne!$C$18:$C$21</c:f>
+              <c:f>'Względne '!$C$18:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -417,7 +414,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Bezwględne!$D$18:$D$21</c:f>
+              <c:f>'Względne '!$D$18:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -443,7 +440,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bezwględne!$B$23</c:f>
+              <c:f>'Względne '!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -475,7 +472,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Bezwględne!$C$24:$C$26</c:f>
+              <c:f>'Względne '!$C$24:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -493,7 +490,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Bezwględne!$D$24:$D$26</c:f>
+              <c:f>'Względne '!$D$24:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -516,7 +513,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bezwględne!$B$29</c:f>
+              <c:f>'Względne '!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -550,7 +547,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Bezwględne!$C$30:$C$33</c:f>
+              <c:f>'Względne '!$C$30:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -571,7 +568,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Bezwględne!$D$30:$D$33</c:f>
+              <c:f>'Względne '!$D$30:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -597,7 +594,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bezwględne!$B$35</c:f>
+              <c:f>'Względne '!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -631,7 +628,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Bezwględne!$C$36:$C$38</c:f>
+              <c:f>'Względne '!$C$36:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -649,7 +646,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Bezwględne!$D$36:$D$38</c:f>
+              <c:f>'Względne '!$D$36:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -672,7 +669,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bezwględne!$B$41</c:f>
+              <c:f>'Względne '!$B$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -706,7 +703,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Bezwględne!$C$42:$C$45</c:f>
+              <c:f>'Względne '!$C$42:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -727,7 +724,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Bezwględne!$D$42:$D$45</c:f>
+              <c:f>'Względne '!$D$42:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -753,7 +750,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Bezwględne!$B$47</c:f>
+              <c:f>'Względne '!$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -784,7 +781,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Bezwględne!$C$48:$C$51</c:f>
+              <c:f>'Względne '!$C$48:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -805,7 +802,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Bezwględne!$D$48:$D$51</c:f>
+              <c:f>'Względne '!$D$48:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -834,11 +831,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="575546640"/>
-        <c:axId val="475277312"/>
+        <c:axId val="162937992"/>
+        <c:axId val="162937208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="575546640"/>
+        <c:axId val="162937992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -897,12 +894,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475277312"/>
+        <c:crossAx val="162937208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475277312"/>
+        <c:axId val="162937208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1056,7 +1053,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575546640"/>
+        <c:crossAx val="162937992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1183,7 +1180,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Względne!$B$5</c:f>
+              <c:f>Bezwzględne!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1216,7 +1213,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Względne!$C$6:$C$9</c:f>
+              <c:f>Bezwzględne!$C$6:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1237,7 +1234,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Względne!$D$6:$D$9</c:f>
+              <c:f>Bezwzględne!$D$6:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1263,7 +1260,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Względne!$B$11</c:f>
+              <c:f>Bezwzględne!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1296,7 +1293,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Względne!$C$12:$C$15</c:f>
+              <c:f>Bezwzględne!$C$12:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1314,7 +1311,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Względne!$D$12:$D$15</c:f>
+              <c:f>Bezwzględne!$D$12:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1337,7 +1334,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Względne!$B$17</c:f>
+              <c:f>Bezwzględne!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1369,7 +1366,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Względne!$C$18:$C$20</c:f>
+              <c:f>Bezwzględne!$C$18:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1387,7 +1384,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Względne!$D$18:$D$20</c:f>
+              <c:f>Bezwzględne!$D$18:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1410,7 +1407,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Względne!$B$23</c:f>
+              <c:f>Bezwzględne!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1444,7 +1441,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Względne!$C$24:$C$27</c:f>
+              <c:f>Bezwzględne!$C$24:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1462,7 +1459,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Względne!$D$24:$D$27</c:f>
+              <c:f>Bezwzględne!$D$24:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1485,7 +1482,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Względne!$B$35</c:f>
+              <c:f>Bezwzględne!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1519,7 +1516,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Względne!$C$36:$C$38</c:f>
+              <c:f>Bezwzględne!$C$36:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1537,7 +1534,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Względne!$D$36:$D$38</c:f>
+              <c:f>Bezwzględne!$D$36:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1560,7 +1557,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Względne!$B$41</c:f>
+              <c:f>Bezwzględne!$B$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1594,7 +1591,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Względne!$C$42:$C$45</c:f>
+              <c:f>Bezwzględne!$C$42:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1615,7 +1612,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Względne!$D$42:$D$45</c:f>
+              <c:f>Bezwzględne!$D$42:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1641,7 +1638,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Względne!$B$29</c:f>
+              <c:f>Bezwzględne!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1675,7 +1672,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Względne!$C$30:$C$32</c:f>
+              <c:f>Bezwzględne!$C$30:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1693,7 +1690,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Względne!$D$30:$D$32</c:f>
+              <c:f>Bezwzględne!$D$30:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1719,11 +1716,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="568373216"/>
-        <c:axId val="568373608"/>
+        <c:axId val="162937600"/>
+        <c:axId val="162933680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="568373216"/>
+        <c:axId val="162937600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000"/>
@@ -1781,12 +1778,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568373608"/>
+        <c:crossAx val="162933680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="568373608"/>
+        <c:axId val="162933680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1940,7 +1937,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568373216"/>
+        <c:crossAx val="162937600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3216,202 +3213,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="FG"/>
-      <sheetName val="FHX"/>
-      <sheetName val="FHN"/>
-      <sheetName val="FXX"/>
-      <sheetName val="TG Z"/>
-      <sheetName val="TG W&amp;J"/>
-      <sheetName val="TG L"/>
-      <sheetName val="TN Z"/>
-      <sheetName val="TN W&amp;J"/>
-      <sheetName val="TN L"/>
-      <sheetName val="TX Z"/>
-      <sheetName val="TX W&amp;J"/>
-      <sheetName val="TX L"/>
-      <sheetName val="T10N Z"/>
-      <sheetName val="T10N W&amp;J"/>
-      <sheetName val="T10N L"/>
-      <sheetName val="Q"/>
-      <sheetName val="RH"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>None</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>-1</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>-1</v>
-          </cell>
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>5</v>
-          </cell>
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>7</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>Low</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>5</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>10</v>
-          </cell>
-          <cell r="D12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>35</v>
-          </cell>
-          <cell r="D13">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>45</v>
-          </cell>
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>High</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>40</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>60</v>
-          </cell>
-          <cell r="D18">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>120</v>
-          </cell>
-          <cell r="D19">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>175</v>
-          </cell>
-          <cell r="D20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Downpour</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>150</v>
-          </cell>
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>180</v>
-          </cell>
-          <cell r="D24">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>776</v>
-          </cell>
-          <cell r="D25">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>776</v>
-          </cell>
-          <cell r="D26">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3680,7 +3481,7 @@
   <dimension ref="B3:K51"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4077,7 +3878,7 @@
   <dimension ref="B3:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Kwantyfikatory.xlsx
+++ b/Data/Kwantyfikatory.xlsx
@@ -42,31 +42,7 @@
     <t>Some</t>
   </si>
   <si>
-    <t>Around one thirds</t>
-  </si>
-  <si>
-    <t>Around half</t>
-  </si>
-  <si>
-    <t>Around two thirds</t>
-  </si>
-  <si>
     <t>Majority</t>
-  </si>
-  <si>
-    <t>Almost All</t>
-  </si>
-  <si>
-    <t>Around 500</t>
-  </si>
-  <si>
-    <t>Around 1000</t>
-  </si>
-  <si>
-    <t>Around 2000</t>
-  </si>
-  <si>
-    <t>Around 5000</t>
   </si>
   <si>
     <t>More than 6000</t>
@@ -75,7 +51,31 @@
     <t>Less than 200</t>
   </si>
   <si>
-    <t>Around 3000</t>
+    <t>About half</t>
+  </si>
+  <si>
+    <t>About one thirds</t>
+  </si>
+  <si>
+    <t>About two thirds</t>
+  </si>
+  <si>
+    <t>About 500</t>
+  </si>
+  <si>
+    <t>About 1000</t>
+  </si>
+  <si>
+    <t>About 2000</t>
+  </si>
+  <si>
+    <t>About 3000</t>
+  </si>
+  <si>
+    <t>About 5000</t>
+  </si>
+  <si>
+    <t>Almost all</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Around one thirds</c:v>
+                  <c:v>About one thirds</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -517,7 +517,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Around half</c:v>
+                  <c:v>About half</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -598,7 +598,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Around two thirds</c:v>
+                  <c:v>About two thirds</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -754,7 +754,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Almost All</c:v>
+                  <c:v>Almost all</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -831,11 +831,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162937992"/>
-        <c:axId val="162937208"/>
+        <c:axId val="339687824"/>
+        <c:axId val="339696408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162937992"/>
+        <c:axId val="339687824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -894,12 +894,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162937208"/>
+        <c:crossAx val="339696408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162937208"/>
+        <c:axId val="339696408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1053,7 +1053,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162937992"/>
+        <c:crossAx val="339687824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1264,7 +1264,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Around 500</c:v>
+                  <c:v>About 500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1338,7 +1338,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Around 1000</c:v>
+                  <c:v>About 1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1411,7 +1411,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Around 2000</c:v>
+                  <c:v>About 2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1486,7 +1486,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Around 5000</c:v>
+                  <c:v>About 5000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1642,7 +1642,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Around 3000</c:v>
+                  <c:v>About 3000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1716,11 +1716,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162937600"/>
-        <c:axId val="162933680"/>
+        <c:axId val="159700712"/>
+        <c:axId val="159701496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162937600"/>
+        <c:axId val="159700712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000"/>
@@ -1778,12 +1778,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162933680"/>
+        <c:crossAx val="159701496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162933680"/>
+        <c:axId val="159701496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1937,7 +1937,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162937600"/>
+        <c:crossAx val="159700712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3481,7 +3481,7 @@
   <dimension ref="B3:K51"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1</v>
@@ -3877,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1</v>
